--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Case</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Consumer_Numbers</t>
+  </si>
+  <si>
+    <t>bene_check_query</t>
+  </si>
+  <si>
+    <t>SELECT PB.CONSUMER_NUMBER FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND PB.IS_ACTIVE = 1 AND PB.COMPANY_CATEGORY = 'BILL_BASED' AND PB.COMPANY_SUB_CATEGORY IN ('Electricity Bill Payment','Gas Bill Payment','Landline Bill Payment','Water / Sanitation Bill Payment') ORDER BY PB.CONSUMER_NUMBER</t>
   </si>
 </sst>
 </file>
@@ -417,27 +423,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,17 +473,20 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="M1"/>
-      <c r="U1" t="s">
+      <c r="N1"/>
+      <c r="V1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -505,20 +515,23 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Case</t>
   </si>
@@ -81,15 +81,9 @@
     <t>schedule_verify</t>
   </si>
   <si>
-    <t>BEGIN UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}';COMMIT;END;</t>
-  </si>
-  <si>
     <t>When valid bill details and consumer numbers are provided</t>
   </si>
   <si>
-    <t>19154110419400,19154110419401,19154110419404</t>
-  </si>
-  <si>
     <t>Consumer_Numbers</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>SELECT PB.CONSUMER_NUMBER FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND PB.IS_ACTIVE = 1 AND PB.COMPANY_CATEGORY = 'BILL_BASED' AND PB.COMPANY_SUB_CATEGORY IN ('Electricity Bill Payment','Gas Bill Payment','Landline Bill Payment','Water / Sanitation Bill Payment') ORDER BY PB.CONSUMER_NUMBER</t>
+  </si>
+  <si>
+    <t>10154111086801,5733200000,79003144300086</t>
   </si>
 </sst>
 </file>
@@ -425,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -473,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -488,13 +485,10 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -515,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Case</t>
   </si>
@@ -93,7 +93,13 @@
     <t>SELECT PB.CONSUMER_NUMBER FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND PB.IS_ACTIVE = 1 AND PB.COMPANY_CATEGORY = 'BILL_BASED' AND PB.COMPANY_SUB_CATEGORY IN ('Electricity Bill Payment','Gas Bill Payment','Landline Bill Payment','Water / Sanitation Bill Payment') ORDER BY PB.CONSUMER_NUMBER</t>
   </si>
   <si>
-    <t>10154111086801,5733200000,79003144300086</t>
+    <t>10154111086801,5733200000</t>
+  </si>
+  <si>
+    <t>account_no</t>
+  </si>
+  <si>
+    <t>02197900643103</t>
   </si>
 </sst>
 </file>
@@ -420,28 +426,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,82 +458,89 @@
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="N1"/>
-      <c r="V1" t="s">
+      <c r="O1"/>
+      <c r="W1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="47">
   <si>
     <t>Case</t>
   </si>
@@ -81,9 +81,6 @@
     <t>schedule_verify</t>
   </si>
   <si>
-    <t>When valid bill details and consumer numbers are provided</t>
-  </si>
-  <si>
     <t>Consumer_Numbers</t>
   </si>
   <si>
@@ -93,20 +90,83 @@
     <t>SELECT PB.CONSUMER_NUMBER FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND PB.IS_ACTIVE = 1 AND PB.COMPANY_CATEGORY = 'BILL_BASED' AND PB.COMPANY_SUB_CATEGORY IN ('Electricity Bill Payment','Gas Bill Payment','Landline Bill Payment','Water / Sanitation Bill Payment') ORDER BY PB.CONSUMER_NUMBER</t>
   </si>
   <si>
-    <t>10154111086801,5733200000</t>
-  </si>
-  <si>
     <t>account_no</t>
   </si>
   <si>
-    <t>02197900643103</t>
+    <t>BEGIN UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}';COMMIT;END;</t>
+  </si>
+  <si>
+    <t>18762420000,0400006464961,6424240000</t>
+  </si>
+  <si>
+    <t>04145830008,79003144300086,65009122300085,79003144300086,0400006464848,0400000025524</t>
+  </si>
+  <si>
+    <t>1212253281</t>
+  </si>
+  <si>
+    <t>1214531441</t>
+  </si>
+  <si>
+    <t>0400000178630</t>
+  </si>
+  <si>
+    <t>48426217229</t>
+  </si>
+  <si>
+    <t>03112730371600</t>
+  </si>
+  <si>
+    <t>0400005358149</t>
+  </si>
+  <si>
+    <t>1755696</t>
+  </si>
+  <si>
+    <t>69061045200059,0400007894161,0400005358068</t>
+  </si>
+  <si>
+    <t>04127927706103</t>
+  </si>
+  <si>
+    <t>To verify that if total bill amount exceeds the available balance in account multi_bill</t>
+  </si>
+  <si>
+    <t>When valid bill details and consumer numbers are provided multi_bill</t>
+  </si>
+  <si>
+    <t>To verify that if customer exceed the max bill count in bulk bill payment multi_bill</t>
+  </si>
+  <si>
+    <t>To verify that when user selects PAID bill multi_bill</t>
+  </si>
+  <si>
+    <t>To verify that when user selects Expired bill multi_bill</t>
+  </si>
+  <si>
+    <t>To verify that when user selects the bill of 0 amount multi_bill</t>
+  </si>
+  <si>
+    <t>To verify that when user selects the bill of negative amount multi_bill</t>
+  </si>
+  <si>
+    <t>To verify that when user selects Inquired status bill multi_bill</t>
+  </si>
+  <si>
+    <t>To verify that when allowed days after due date has passed against any particular consumer number multi_bill</t>
+  </si>
+  <si>
+    <t>To verify that if user select those bills that are not allowed for multi bill payment multi_bill</t>
+  </si>
+  <si>
+    <t>To verify limits of multi bill payment multi_bill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +179,11 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="MyFontLight"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,11 +206,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,14 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="91.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="185.85546875" bestFit="1" customWidth="1"/>
@@ -448,7 +518,7 @@
     <col min="21" max="21" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
@@ -480,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
@@ -493,54 +563,511 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:23" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="W2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="W3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W2" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="W4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
+    <row r="5" spans="1:23" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="W5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+      <c r="W6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="W7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="W8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="W9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="W10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="W11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="W12" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/MultiBillPayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
   <si>
     <t>Case</t>
   </si>
@@ -75,12 +75,6 @@
     <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>Select FIRST_EXECUTION_DATE, LAST_EXECUTION_DATE from DC_SCHEDULED_TRAN_MASTER i where I.CUSTOMER_INFO_ID='{customer_info_id}'</t>
-  </si>
-  <si>
-    <t>schedule_verify</t>
-  </si>
-  <si>
     <t>Consumer_Numbers</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>account_no</t>
   </si>
   <si>
-    <t>BEGIN UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}';COMMIT;END;</t>
-  </si>
-  <si>
     <t>18762420000,0400006464961,6424240000</t>
   </si>
   <si>
@@ -160,6 +151,15 @@
   </si>
   <si>
     <t>To verify limits of multi bill payment multi_bill</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -495,11 +495,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -518,7 +516,7 @@
     <col min="21" max="21" width="118.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
@@ -550,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
@@ -558,23 +556,20 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="O1"/>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -595,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>12</v>
@@ -603,24 +598,20 @@
       <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O2" s="6"/>
-      <c r="W2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -641,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>12</v>
@@ -649,24 +640,20 @@
       <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="O3" s="6"/>
-      <c r="W3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -687,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>12</v>
@@ -695,24 +682,20 @@
       <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O4" s="6"/>
-      <c r="W4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -733,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>12</v>
@@ -741,24 +724,20 @@
       <c r="M5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O5" s="6"/>
-      <c r="W5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
@@ -779,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>12</v>
@@ -787,24 +766,20 @@
       <c r="M6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O6" s="6"/>
-      <c r="W6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>15</v>
@@ -825,7 +800,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>12</v>
@@ -833,24 +808,20 @@
       <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O7" s="6"/>
-      <c r="W7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -871,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>12</v>
@@ -879,24 +850,20 @@
       <c r="M8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O8" s="6"/>
-      <c r="W8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
@@ -917,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>12</v>
@@ -925,24 +892,20 @@
       <c r="M9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O9" s="6"/>
-      <c r="W9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:15" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
@@ -963,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>12</v>
@@ -971,24 +934,20 @@
       <c r="M10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O10" s="6"/>
-      <c r="W10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="11" spans="1:15" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>
@@ -1009,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>12</v>
@@ -1017,24 +976,20 @@
       <c r="M11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O11" s="6"/>
-      <c r="W11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="3" customFormat="1">
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
@@ -1055,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>12</v>
@@ -1063,11 +1018,10 @@
       <c r="M12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O12" s="6"/>
-      <c r="W12" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
